--- a/Code/Results/Cases/Case_3_182/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_182/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>23.70569319546809</v>
+        <v>16.72772944972617</v>
       </c>
       <c r="C2">
-        <v>17.024728343895</v>
+        <v>9.985852220438849</v>
       </c>
       <c r="D2">
-        <v>7.804979931094085</v>
+        <v>10.08902423161724</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>30.82487828526359</v>
+        <v>35.24802390981363</v>
       </c>
       <c r="G2">
-        <v>38.28744014278612</v>
+        <v>37.93853244728479</v>
       </c>
       <c r="H2">
-        <v>11.34997986226641</v>
+        <v>16.13047118751786</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>8.31018128430903</v>
+        <v>11.35377249047149</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.15627423929054</v>
+        <v>17.21177631290732</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.05142781517627</v>
+        <v>16.16419213718873</v>
       </c>
       <c r="C3">
-        <v>15.86224764479022</v>
+        <v>9.456785351342521</v>
       </c>
       <c r="D3">
-        <v>7.450229392135334</v>
+        <v>10.04248633092132</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>29.49810057618597</v>
+        <v>35.11769566837565</v>
       </c>
       <c r="G3">
-        <v>36.33829998128613</v>
+        <v>37.64632634482904</v>
       </c>
       <c r="H3">
-        <v>11.11886520134305</v>
+        <v>16.15305342033729</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>8.023762761076352</v>
+        <v>11.33834666643095</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>11.4147304318187</v>
+        <v>17.28317986346202</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.98008546450284</v>
+        <v>15.81177377851516</v>
       </c>
       <c r="C4">
-        <v>15.10944499973806</v>
+        <v>9.117763237468914</v>
       </c>
       <c r="D4">
-        <v>7.227766774988921</v>
+        <v>10.01549962023959</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>28.69188336775544</v>
+        <v>35.04914211878977</v>
       </c>
       <c r="G4">
-        <v>35.14476857724686</v>
+        <v>37.48171123223569</v>
       </c>
       <c r="H4">
-        <v>10.98778118671903</v>
+        <v>16.17106108166537</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.849754019268065</v>
+        <v>11.33131085130395</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>11.57592440779818</v>
+        <v>17.32899528429521</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20.52937050148586</v>
+        <v>15.66678817205626</v>
       </c>
       <c r="C5">
-        <v>14.79275467915916</v>
+        <v>8.976200238910327</v>
       </c>
       <c r="D5">
-        <v>7.136051671026309</v>
+        <v>10.00490913525305</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>28.36580838220186</v>
+        <v>35.02410464468846</v>
       </c>
       <c r="G5">
-        <v>34.65975625441661</v>
+        <v>37.41841188086753</v>
       </c>
       <c r="H5">
-        <v>10.93702703147725</v>
+        <v>16.17943708146122</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7.779376171462073</v>
+        <v>11.32905749728141</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>11.64228969127671</v>
+        <v>17.34816345564698</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.45367173849901</v>
+        <v>15.6426378752471</v>
       </c>
       <c r="C6">
-        <v>14.7395666866436</v>
+        <v>8.952493025695674</v>
       </c>
       <c r="D6">
-        <v>7.120761951281969</v>
+        <v>10.00317537540994</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>28.31182370703341</v>
+        <v>35.02012261030301</v>
       </c>
       <c r="G6">
-        <v>34.57932037768233</v>
+        <v>37.40813113820916</v>
       </c>
       <c r="H6">
-        <v>10.92875841347232</v>
+        <v>16.18089046665062</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.767724180409155</v>
+        <v>11.32872043100537</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>11.65335187490103</v>
+        <v>17.35137644774478</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.97406438592084</v>
+        <v>15.80982367947306</v>
       </c>
       <c r="C7">
-        <v>15.10521428692738</v>
+        <v>9.115867645381002</v>
       </c>
       <c r="D7">
-        <v>7.226534007964755</v>
+        <v>10.01535513644126</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>28.68747533638398</v>
+        <v>35.04879270193796</v>
       </c>
       <c r="G7">
-        <v>35.13822122687554</v>
+        <v>37.48084216561129</v>
       </c>
       <c r="H7">
-        <v>10.98708599402246</v>
+        <v>16.1711698470251</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.848802632223266</v>
+        <v>11.33127797514169</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>11.57681662825505</v>
+        <v>17.32925177416443</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.14675352859076</v>
+        <v>16.53488784927742</v>
       </c>
       <c r="C8">
-        <v>16.63194329711034</v>
+        <v>9.806456224228429</v>
       </c>
       <c r="D8">
-        <v>7.683685114492842</v>
+        <v>10.07265311220637</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>30.36584786093959</v>
+        <v>35.20071662432778</v>
       </c>
       <c r="G8">
-        <v>37.61499698297073</v>
+        <v>37.83474717030143</v>
       </c>
       <c r="H8">
-        <v>11.26801274996386</v>
+        <v>16.13739566579194</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>8.211076833543764</v>
+        <v>11.34794906143689</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.24490112196994</v>
+        <v>17.23598777481076</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>26.97325623485183</v>
+        <v>17.89645004770693</v>
       </c>
       <c r="C9">
-        <v>19.32110007947539</v>
+        <v>11.04273219416118</v>
       </c>
       <c r="D9">
-        <v>8.539493394702911</v>
+        <v>10.19725872496537</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>33.71171798619608</v>
+        <v>35.5887857608389</v>
       </c>
       <c r="G9">
-        <v>42.47953644479278</v>
+        <v>38.64308778720473</v>
       </c>
       <c r="H9">
-        <v>11.90712383164433</v>
+        <v>16.10418506618468</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>8.93375632376728</v>
+        <v>11.3998906377687</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>10.61148769230599</v>
+        <v>17.06867196674729</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.53060684932906</v>
+        <v>18.8487391983872</v>
       </c>
       <c r="C10">
-        <v>21.1185638711305</v>
+        <v>11.87325818788558</v>
       </c>
       <c r="D10">
-        <v>9.139646717534886</v>
+        <v>10.29576862791191</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>36.19169131376906</v>
+        <v>35.92743453573257</v>
       </c>
       <c r="G10">
-        <v>46.0426763880589</v>
+        <v>39.3019650641531</v>
       </c>
       <c r="H10">
-        <v>12.43361525711184</v>
+        <v>16.10010290313529</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.469747738529982</v>
+        <v>11.44965759956261</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>10.15317552884518</v>
+        <v>16.95512216609556</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.64143969485444</v>
+        <v>19.26952278614161</v>
       </c>
       <c r="C11">
-        <v>21.89941535464575</v>
+        <v>12.23332279584763</v>
       </c>
       <c r="D11">
-        <v>9.406000486055365</v>
+        <v>10.3419796037071</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>37.32373880376089</v>
+        <v>36.09273174936655</v>
       </c>
       <c r="G11">
-        <v>47.66061603224392</v>
+        <v>39.61467164646722</v>
       </c>
       <c r="H11">
-        <v>12.68621815675991</v>
+        <v>16.10268855123218</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.714437347731165</v>
+        <v>11.47478071854703</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>9.945326747868984</v>
+        <v>16.90547649872824</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.054764378342</v>
+        <v>19.42693435493752</v>
       </c>
       <c r="C12">
-        <v>22.18997723780139</v>
+        <v>12.36706322964205</v>
       </c>
       <c r="D12">
-        <v>9.505887019384094</v>
+        <v>10.35966925569578</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>37.75301095678674</v>
+        <v>36.15690394365798</v>
       </c>
       <c r="G12">
-        <v>48.27297708971059</v>
+        <v>39.73484791308572</v>
       </c>
       <c r="H12">
-        <v>12.78382419786085</v>
+        <v>16.10430821661344</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.807219254933971</v>
+        <v>11.48464743077296</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>9.866630902457594</v>
+        <v>16.88696395260752</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.96606936440523</v>
+        <v>19.39312091782591</v>
       </c>
       <c r="C13">
-        <v>22.12762486290489</v>
+        <v>12.33837661306669</v>
       </c>
       <c r="D13">
-        <v>9.484418193202268</v>
+        <v>10.35585116818146</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>37.66053181701131</v>
+        <v>36.1430138040066</v>
       </c>
       <c r="G13">
-        <v>48.1411051610703</v>
+        <v>39.70888920291265</v>
       </c>
       <c r="H13">
-        <v>12.76271502944746</v>
+        <v>16.10393088305638</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.787231359877779</v>
+        <v>11.4825068213302</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>9.88358028495781</v>
+        <v>16.89093821401362</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.67558955668359</v>
+        <v>19.28251257914646</v>
       </c>
       <c r="C14">
-        <v>21.92342185314077</v>
+        <v>12.24437825695039</v>
       </c>
       <c r="D14">
-        <v>9.414237817969507</v>
+        <v>10.34343118427272</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>37.35904295671553</v>
+        <v>36.09797985109991</v>
       </c>
       <c r="G14">
-        <v>47.71100061727385</v>
+        <v>39.6245239446616</v>
       </c>
       <c r="H14">
-        <v>12.69420874032598</v>
+        <v>16.1028089568746</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.722068044915117</v>
+        <v>11.47558540638374</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>9.938852639033577</v>
+        <v>16.90394771414162</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.49671567992231</v>
+        <v>19.21450643043869</v>
       </c>
       <c r="C15">
-        <v>21.7976787819687</v>
+        <v>12.18646040458632</v>
       </c>
       <c r="D15">
-        <v>9.371122950831991</v>
+        <v>10.33584808445969</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>37.17445163709021</v>
+        <v>36.07059949933916</v>
       </c>
       <c r="G15">
-        <v>47.44751327972384</v>
+        <v>39.57307392957541</v>
       </c>
       <c r="H15">
-        <v>12.65250290624577</v>
+        <v>16.10220520307075</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.68216994964112</v>
+        <v>11.47139170032318</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>9.972707605971474</v>
+        <v>16.91195376032169</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.45697356332641</v>
+        <v>18.82097739604251</v>
       </c>
       <c r="C16">
-        <v>21.06680618683563</v>
+        <v>11.84936494002088</v>
       </c>
       <c r="D16">
-        <v>9.122103953320536</v>
+        <v>10.29277587772835</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>36.11778827775685</v>
+        <v>35.91685496738973</v>
       </c>
       <c r="G16">
-        <v>45.93688691409854</v>
+        <v>39.2817812314221</v>
       </c>
       <c r="H16">
-        <v>12.4173761391589</v>
+        <v>16.10002347812964</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.453773613333475</v>
+        <v>11.44806539111064</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>10.16676514019064</v>
+        <v>16.95840690537953</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.80583033130204</v>
+        <v>18.57627147109734</v>
       </c>
       <c r="C17">
-        <v>20.60912084860695</v>
+        <v>11.63797875625214</v>
       </c>
       <c r="D17">
-        <v>8.967615326828144</v>
+        <v>10.26670323455041</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>35.47055065143664</v>
+        <v>35.82539083580478</v>
       </c>
       <c r="G17">
-        <v>45.00944443910402</v>
+        <v>39.1063334955892</v>
       </c>
       <c r="H17">
-        <v>12.27653291039558</v>
+        <v>16.09982428831157</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.313875171786488</v>
+        <v>11.434388902449</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>10.28592241528452</v>
+        <v>16.98741769811426</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.42635181895972</v>
+        <v>18.43436181254638</v>
       </c>
       <c r="C18">
-        <v>20.34239549461769</v>
+        <v>11.51472724552051</v>
       </c>
       <c r="D18">
-        <v>8.878130870403558</v>
+        <v>10.25183920755761</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>35.09863611742674</v>
+        <v>35.7738440199344</v>
       </c>
       <c r="G18">
-        <v>44.47571166616378</v>
+        <v>39.00664896214514</v>
       </c>
       <c r="H18">
-        <v>12.19675202454101</v>
+        <v>16.10012781271278</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.233489700470939</v>
+        <v>11.42675661377045</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>10.35452396063628</v>
+        <v>17.00429310605618</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.29700871821811</v>
+        <v>18.38611886871089</v>
       </c>
       <c r="C19">
-        <v>20.25148493597445</v>
+        <v>11.47271187231099</v>
       </c>
       <c r="D19">
-        <v>8.84772615201814</v>
+        <v>10.24682953592223</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>34.97277450916815</v>
+        <v>35.75657450577244</v>
       </c>
       <c r="G19">
-        <v>44.29494763763276</v>
+        <v>38.97311160425471</v>
       </c>
       <c r="H19">
-        <v>12.16994870111252</v>
+        <v>16.10030232905702</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.206286680767731</v>
+        <v>11.42421276882382</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>10.37776481946118</v>
+        <v>17.01003936963707</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.87565719963375</v>
+        <v>18.60244212283764</v>
       </c>
       <c r="C20">
-        <v>20.65820092733041</v>
+        <v>11.66065422925726</v>
       </c>
       <c r="D20">
-        <v>8.984125946687923</v>
+        <v>10.26946509794891</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>35.53941306694248</v>
+        <v>35.83501781912784</v>
       </c>
       <c r="G20">
-        <v>45.10820218863789</v>
+        <v>39.12488382591279</v>
       </c>
       <c r="H20">
-        <v>12.29139832605329</v>
+        <v>16.09980220770287</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.328759339276804</v>
+        <v>11.43582059097966</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>10.27323170352784</v>
+        <v>16.98430988376951</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.76110735131656</v>
+        <v>19.3150543779577</v>
       </c>
       <c r="C21">
-        <v>21.98353904112808</v>
+        <v>12.27205903196629</v>
       </c>
       <c r="D21">
-        <v>9.434878047941488</v>
+        <v>10.34707414823951</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>37.44758083296286</v>
+        <v>36.11116492498919</v>
       </c>
       <c r="G21">
-        <v>47.83733984510745</v>
+        <v>39.64925713223308</v>
       </c>
       <c r="H21">
-        <v>12.71427715933943</v>
+        <v>16.10312109882019</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.741204666961206</v>
+        <v>11.47760884430733</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>9.922618159727573</v>
+        <v>16.90011872747272</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.95079239009752</v>
+        <v>19.7694825158696</v>
       </c>
       <c r="C22">
-        <v>22.81991403736333</v>
+        <v>12.65642621845792</v>
       </c>
       <c r="D22">
-        <v>9.723785153612168</v>
+        <v>10.39890178633534</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>38.69819913447702</v>
+        <v>36.3008186699622</v>
       </c>
       <c r="G22">
-        <v>49.61928470697362</v>
+        <v>40.00217860188818</v>
       </c>
       <c r="H22">
-        <v>13.00206431798897</v>
+        <v>16.10902415235341</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.01149219842669</v>
+        <v>11.50697601640238</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>9.693498911295578</v>
+        <v>16.84676814738386</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.31964864627568</v>
+        <v>19.52802351820824</v>
       </c>
       <c r="C23">
-        <v>22.37619340178336</v>
+        <v>12.45269072651052</v>
       </c>
       <c r="D23">
-        <v>9.570112199541917</v>
+        <v>10.37114278551223</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>38.03036480066901</v>
+        <v>36.19877114625167</v>
       </c>
       <c r="G23">
-        <v>48.66831253622993</v>
+        <v>39.81291913570344</v>
       </c>
       <c r="H23">
-        <v>12.84739725018518</v>
+        <v>16.10553149471943</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.8671635606067</v>
+        <v>11.49111552035512</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>9.815810189216686</v>
+        <v>16.87508980171643</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.84410446077855</v>
+        <v>18.5906141755069</v>
       </c>
       <c r="C24">
-        <v>20.63602303664141</v>
+        <v>11.65040800963753</v>
       </c>
       <c r="D24">
-        <v>8.976663571072811</v>
+        <v>10.26821606785559</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>35.50827977508211</v>
+        <v>35.83066222644545</v>
       </c>
       <c r="G24">
-        <v>45.0635554789044</v>
+        <v>39.11649352958842</v>
       </c>
       <c r="H24">
-        <v>12.28467396446158</v>
+        <v>16.09981088828935</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.3220300697716</v>
+        <v>11.43517260630597</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>10.27896886797399</v>
+        <v>16.98571431373066</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>25.98350637873189</v>
+        <v>17.53580762720258</v>
       </c>
       <c r="C25">
-        <v>18.62549850734288</v>
+        <v>10.72159429162739</v>
       </c>
       <c r="D25">
-        <v>8.312787741222502</v>
+        <v>10.16228890240512</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>32.80218190181756</v>
+        <v>35.47428236751271</v>
       </c>
       <c r="G25">
-        <v>41.16479459060889</v>
+        <v>38.41262797761942</v>
       </c>
       <c r="H25">
-        <v>11.72445676470789</v>
+        <v>16.10961321782586</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>8.7372369040461</v>
+        <v>11.38378977136335</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>10.78132538065822</v>
+        <v>17.11228016542953</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_182/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_182/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.72772944972617</v>
+        <v>23.70569319546806</v>
       </c>
       <c r="C2">
-        <v>9.985852220438849</v>
+        <v>17.02472834389505</v>
       </c>
       <c r="D2">
-        <v>10.08902423161724</v>
+        <v>7.804979931094087</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>35.24802390981363</v>
+        <v>30.82487828526358</v>
       </c>
       <c r="G2">
-        <v>37.93853244728479</v>
+        <v>38.2874401427861</v>
       </c>
       <c r="H2">
-        <v>16.13047118751786</v>
+        <v>11.34997986226641</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>11.35377249047149</v>
+        <v>8.310181284309065</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>17.21177631290732</v>
+        <v>11.15627423929054</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.16419213718873</v>
+        <v>22.05142781517629</v>
       </c>
       <c r="C3">
-        <v>9.456785351342521</v>
+        <v>15.86224764479026</v>
       </c>
       <c r="D3">
-        <v>10.04248633092132</v>
+        <v>7.450229392135268</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>35.11769566837565</v>
+        <v>29.49810057618597</v>
       </c>
       <c r="G3">
-        <v>37.64632634482904</v>
+        <v>36.33829998128623</v>
       </c>
       <c r="H3">
-        <v>16.15305342033729</v>
+        <v>11.11886520134301</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>11.33834666643095</v>
+        <v>8.02376276107629</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>17.28317986346202</v>
+        <v>11.4147304318187</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.81177377851516</v>
+        <v>20.9800854645029</v>
       </c>
       <c r="C4">
-        <v>9.117763237468914</v>
+        <v>15.10944499973817</v>
       </c>
       <c r="D4">
-        <v>10.01549962023959</v>
+        <v>7.227766774989044</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>35.04914211878977</v>
+        <v>28.69188336775533</v>
       </c>
       <c r="G4">
-        <v>37.48171123223569</v>
+        <v>35.14476857724665</v>
       </c>
       <c r="H4">
-        <v>16.17106108166537</v>
+        <v>10.9877811867189</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>11.33131085130395</v>
+        <v>7.849754019268097</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>17.32899528429521</v>
+        <v>11.57592440779812</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.66678817205626</v>
+        <v>20.52937050148586</v>
       </c>
       <c r="C5">
-        <v>8.976200238910327</v>
+        <v>14.79275467915919</v>
       </c>
       <c r="D5">
-        <v>10.00490913525305</v>
+        <v>7.136051671026325</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>35.02410464468846</v>
+        <v>28.36580838220183</v>
       </c>
       <c r="G5">
-        <v>37.41841188086753</v>
+        <v>34.65975625441655</v>
       </c>
       <c r="H5">
-        <v>16.17943708146122</v>
+        <v>10.93702703147724</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>11.32905749728141</v>
+        <v>7.779376171462133</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>17.34816345564698</v>
+        <v>11.64228969127668</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.6426378752471</v>
+        <v>20.45367173849901</v>
       </c>
       <c r="C6">
-        <v>8.952493025695674</v>
+        <v>14.73956668664377</v>
       </c>
       <c r="D6">
-        <v>10.00317537540994</v>
+        <v>7.120761951281877</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>35.02012261030301</v>
+        <v>28.3118237070333</v>
       </c>
       <c r="G6">
-        <v>37.40813113820916</v>
+        <v>34.57932037768215</v>
       </c>
       <c r="H6">
-        <v>16.18089046665062</v>
+        <v>10.92875841347232</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>11.32872043100537</v>
+        <v>7.767724180409173</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>17.35137644774478</v>
+        <v>11.65335187490103</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.80982367947306</v>
+        <v>20.9740643859209</v>
       </c>
       <c r="C7">
-        <v>9.115867645381002</v>
+        <v>15.10521428692751</v>
       </c>
       <c r="D7">
-        <v>10.01535513644126</v>
+        <v>7.226534007964802</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>35.04879270193796</v>
+        <v>28.68747533638383</v>
       </c>
       <c r="G7">
-        <v>37.48084216561129</v>
+        <v>35.13822122687527</v>
       </c>
       <c r="H7">
-        <v>16.1711698470251</v>
+        <v>10.98708599402237</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>11.33127797514169</v>
+        <v>7.84880263222327</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>17.32925177416443</v>
+        <v>11.57681662825498</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.53488784927742</v>
+        <v>23.14675352859079</v>
       </c>
       <c r="C8">
-        <v>9.806456224228429</v>
+        <v>16.63194329711034</v>
       </c>
       <c r="D8">
-        <v>10.07265311220637</v>
+        <v>7.683685114492709</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>35.20071662432778</v>
+        <v>30.36584786093957</v>
       </c>
       <c r="G8">
-        <v>37.83474717030143</v>
+        <v>37.61499698297076</v>
       </c>
       <c r="H8">
-        <v>16.13739566579194</v>
+        <v>11.26801274996387</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>11.34794906143689</v>
+        <v>8.211076833543753</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>17.23598777481076</v>
+        <v>11.24490112196994</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.89645004770693</v>
+        <v>26.97325623485182</v>
       </c>
       <c r="C9">
-        <v>11.04273219416118</v>
+        <v>19.32110007947544</v>
       </c>
       <c r="D9">
-        <v>10.19725872496537</v>
+        <v>8.539493394702919</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>35.5887857608389</v>
+        <v>33.71171798619608</v>
       </c>
       <c r="G9">
-        <v>38.64308778720473</v>
+        <v>42.47953644479278</v>
       </c>
       <c r="H9">
-        <v>16.10418506618468</v>
+        <v>11.90712383164432</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>11.3998906377687</v>
+        <v>8.933756323767268</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>17.06867196674729</v>
+        <v>10.61148769230596</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.8487391983872</v>
+        <v>29.53060684932908</v>
       </c>
       <c r="C10">
-        <v>11.87325818788558</v>
+        <v>21.11856387113043</v>
       </c>
       <c r="D10">
-        <v>10.29576862791191</v>
+        <v>9.139646717534919</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>35.92743453573257</v>
+        <v>36.19169131376904</v>
       </c>
       <c r="G10">
-        <v>39.3019650641531</v>
+        <v>46.04267638805884</v>
       </c>
       <c r="H10">
-        <v>16.10010290313529</v>
+        <v>12.43361525711183</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>11.44965759956261</v>
+        <v>9.469747738529993</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>16.95512216609556</v>
+        <v>10.15317552884519</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.26952278614161</v>
+        <v>30.64143969485456</v>
       </c>
       <c r="C11">
-        <v>12.23332279584763</v>
+        <v>21.89941535464579</v>
       </c>
       <c r="D11">
-        <v>10.3419796037071</v>
+        <v>9.406000486055314</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>36.09273174936655</v>
+        <v>37.32373880376089</v>
       </c>
       <c r="G11">
-        <v>39.61467164646722</v>
+        <v>47.66061603224402</v>
       </c>
       <c r="H11">
-        <v>16.10268855123218</v>
+        <v>12.68621815675987</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>11.47478071854703</v>
+        <v>9.714437347731158</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>16.90547649872824</v>
+        <v>9.945326747868952</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.42693435493752</v>
+        <v>31.05476437834199</v>
       </c>
       <c r="C12">
-        <v>12.36706322964205</v>
+        <v>22.18997723780139</v>
       </c>
       <c r="D12">
-        <v>10.35966925569578</v>
+        <v>9.505887019384032</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>36.15690394365798</v>
+        <v>37.75301095678674</v>
       </c>
       <c r="G12">
-        <v>39.73484791308572</v>
+        <v>48.27297708971056</v>
       </c>
       <c r="H12">
-        <v>16.10430821661344</v>
+        <v>12.78382419786084</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>11.48464743077296</v>
+        <v>9.807219254933985</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>16.88696395260752</v>
+        <v>9.866630902457592</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.39312091782591</v>
+        <v>30.96606936440508</v>
       </c>
       <c r="C13">
-        <v>12.33837661306669</v>
+        <v>22.12762486290491</v>
       </c>
       <c r="D13">
-        <v>10.35585116818146</v>
+        <v>9.484418193202227</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>36.1430138040066</v>
+        <v>37.66053181701128</v>
       </c>
       <c r="G13">
-        <v>39.70888920291265</v>
+        <v>48.14110516107017</v>
       </c>
       <c r="H13">
-        <v>16.10393088305638</v>
+        <v>12.76271502944751</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>11.4825068213302</v>
+        <v>9.787231359877786</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>16.89093821401362</v>
+        <v>9.883580284958015</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.28251257914646</v>
+        <v>30.67558955668371</v>
       </c>
       <c r="C14">
-        <v>12.24437825695039</v>
+        <v>21.92342185314084</v>
       </c>
       <c r="D14">
-        <v>10.34343118427272</v>
+        <v>9.414237817969482</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>36.09797985109991</v>
+        <v>37.35904295671558</v>
       </c>
       <c r="G14">
-        <v>39.6245239446616</v>
+        <v>47.71100061727401</v>
       </c>
       <c r="H14">
-        <v>16.1028089568746</v>
+        <v>12.69420874032595</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>11.47558540638374</v>
+        <v>9.722068044915098</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>16.90394771414162</v>
+        <v>9.938852639033474</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.21450643043869</v>
+        <v>30.49671567992229</v>
       </c>
       <c r="C15">
-        <v>12.18646040458632</v>
+        <v>21.79767878196868</v>
       </c>
       <c r="D15">
-        <v>10.33584808445969</v>
+        <v>9.371122950832019</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>36.07059949933916</v>
+        <v>37.17445163709025</v>
       </c>
       <c r="G15">
-        <v>39.57307392957541</v>
+        <v>47.44751327972384</v>
       </c>
       <c r="H15">
-        <v>16.10220520307075</v>
+        <v>12.6525029062458</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>11.47139170032318</v>
+        <v>9.682169949641123</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>16.91195376032169</v>
+        <v>9.972707605971538</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.82097739604251</v>
+        <v>29.4569735633263</v>
       </c>
       <c r="C16">
-        <v>11.84936494002088</v>
+        <v>21.06680618683551</v>
       </c>
       <c r="D16">
-        <v>10.29277587772835</v>
+        <v>9.122103953320524</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>35.91685496738973</v>
+        <v>36.11778827775687</v>
       </c>
       <c r="G16">
-        <v>39.2817812314221</v>
+        <v>45.93688691409844</v>
       </c>
       <c r="H16">
-        <v>16.10002347812964</v>
+        <v>12.41737613915899</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>11.44806539111064</v>
+        <v>9.453773613333466</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>16.95840690537953</v>
+        <v>10.16676514019078</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.57627147109734</v>
+        <v>28.80583033130209</v>
       </c>
       <c r="C17">
-        <v>11.63797875625214</v>
+        <v>20.60912084860695</v>
       </c>
       <c r="D17">
-        <v>10.26670323455041</v>
+        <v>8.967615326828113</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>35.82539083580478</v>
+        <v>35.47055065143662</v>
       </c>
       <c r="G17">
-        <v>39.1063334955892</v>
+        <v>45.00944443910406</v>
       </c>
       <c r="H17">
-        <v>16.09982428831157</v>
+        <v>12.27653291039558</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>11.434388902449</v>
+        <v>9.313875171786506</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>16.98741769811426</v>
+        <v>10.28592241528452</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.43436181254638</v>
+        <v>28.42635181895979</v>
       </c>
       <c r="C18">
-        <v>11.51472724552051</v>
+        <v>20.3423954946177</v>
       </c>
       <c r="D18">
-        <v>10.25183920755761</v>
+        <v>8.878130870403519</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>35.7738440199344</v>
+        <v>35.09863611742679</v>
       </c>
       <c r="G18">
-        <v>39.00664896214514</v>
+        <v>44.4757116661639</v>
       </c>
       <c r="H18">
-        <v>16.10012781271278</v>
+        <v>12.196752024541</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>11.42675661377045</v>
+        <v>9.233489700470923</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>17.00429310605618</v>
+        <v>10.35452396063625</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.38611886871089</v>
+        <v>28.29700871821821</v>
       </c>
       <c r="C19">
-        <v>11.47271187231099</v>
+        <v>20.25148493597441</v>
       </c>
       <c r="D19">
-        <v>10.24682953592223</v>
+        <v>8.847726152018184</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>35.75657450577244</v>
+        <v>34.97277450916815</v>
       </c>
       <c r="G19">
-        <v>38.97311160425471</v>
+        <v>44.2949476376328</v>
       </c>
       <c r="H19">
-        <v>16.10030232905702</v>
+        <v>12.16994870111249</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>11.42421276882382</v>
+        <v>9.206286680767722</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>17.01003936963707</v>
+        <v>10.3777648194611</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.60244212283764</v>
+        <v>28.8756571996338</v>
       </c>
       <c r="C20">
-        <v>11.66065422925726</v>
+        <v>20.65820092733042</v>
       </c>
       <c r="D20">
-        <v>10.26946509794891</v>
+        <v>8.984125946687943</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>35.83501781912784</v>
+        <v>35.53941306694245</v>
       </c>
       <c r="G20">
-        <v>39.12488382591279</v>
+        <v>45.10820218863787</v>
       </c>
       <c r="H20">
-        <v>16.09980220770287</v>
+        <v>12.29139832605326</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>11.43582059097966</v>
+        <v>9.328759339276838</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>16.98430988376951</v>
+        <v>10.2732317035278</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.3150543779577</v>
+        <v>30.7611073513165</v>
       </c>
       <c r="C21">
-        <v>12.27205903196629</v>
+        <v>21.98353904112805</v>
       </c>
       <c r="D21">
-        <v>10.34707414823951</v>
+        <v>9.434878047941506</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>36.11116492498919</v>
+        <v>37.44758083296283</v>
       </c>
       <c r="G21">
-        <v>39.64925713223308</v>
+        <v>47.83733984510734</v>
       </c>
       <c r="H21">
-        <v>16.10312109882019</v>
+        <v>12.71427715933943</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>11.47760884430733</v>
+        <v>9.741204666961202</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>16.90011872747272</v>
+        <v>9.922618159727611</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.7694825158696</v>
+        <v>31.9507923900975</v>
       </c>
       <c r="C22">
-        <v>12.65642621845792</v>
+        <v>22.81991403736334</v>
       </c>
       <c r="D22">
-        <v>10.39890178633534</v>
+        <v>9.723785153612212</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>36.3008186699622</v>
+        <v>38.69819913447706</v>
       </c>
       <c r="G22">
-        <v>40.00217860188818</v>
+        <v>49.61928470697369</v>
       </c>
       <c r="H22">
-        <v>16.10902415235341</v>
+        <v>13.00206431798899</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>11.50697601640238</v>
+        <v>10.01149219842669</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>16.84676814738386</v>
+        <v>9.69349891129561</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.52802351820824</v>
+        <v>31.31964864627574</v>
       </c>
       <c r="C23">
-        <v>12.45269072651052</v>
+        <v>22.37619340178347</v>
       </c>
       <c r="D23">
-        <v>10.37114278551223</v>
+        <v>9.570112199541928</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>36.19877114625167</v>
+        <v>38.03036480066906</v>
       </c>
       <c r="G23">
-        <v>39.81291913570344</v>
+        <v>48.66831253623</v>
       </c>
       <c r="H23">
-        <v>16.10553149471943</v>
+        <v>12.84739725018513</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>11.49111552035512</v>
+        <v>9.867163560606691</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>16.87508980171643</v>
+        <v>9.81581018921665</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.5906141755069</v>
+        <v>28.84410446077857</v>
       </c>
       <c r="C24">
-        <v>11.65040800963753</v>
+        <v>20.63602303664154</v>
       </c>
       <c r="D24">
-        <v>10.26821606785559</v>
+        <v>8.976663571072782</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>35.83066222644545</v>
+        <v>35.50827977508213</v>
       </c>
       <c r="G24">
-        <v>39.11649352958842</v>
+        <v>45.0635554789045</v>
       </c>
       <c r="H24">
-        <v>16.09981088828935</v>
+        <v>12.28467396446159</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>11.43517260630597</v>
+        <v>9.322030069771602</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>16.98571431373066</v>
+        <v>10.27896886797392</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.53580762720258</v>
+        <v>25.9835063787319</v>
       </c>
       <c r="C25">
-        <v>10.72159429162739</v>
+        <v>18.62549850734287</v>
       </c>
       <c r="D25">
-        <v>10.16228890240512</v>
+        <v>8.312787741222532</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>35.47428236751271</v>
+        <v>32.80218190181754</v>
       </c>
       <c r="G25">
-        <v>38.41262797761942</v>
+        <v>41.16479459060882</v>
       </c>
       <c r="H25">
-        <v>16.10961321782586</v>
+        <v>11.72445676470794</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>11.38378977136335</v>
+        <v>8.737236904046121</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>17.11228016542953</v>
+        <v>10.78132538065825</v>
       </c>
       <c r="O25">
         <v>0</v>
